--- a/dados/controle.xlsx
+++ b/dados/controle.xlsx
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Técnico</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Serviço Feito</t>
+  </si>
+  <si>
+    <t>Observações</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Garantia</t>
+  </si>
+  <si>
+    <t>Valor Cobrado</t>
+  </si>
+  <si>
+    <t>Lucro</t>
+  </si>
+  <si>
     <t>Mês</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Técnico</t>
-  </si>
-  <si>
-    <t>Cliente</t>
-  </si>
-  <si>
-    <t>Serviço Feito</t>
-  </si>
-  <si>
-    <t>Observações</t>
-  </si>
-  <si>
-    <t>Modelo</t>
-  </si>
-  <si>
-    <t>Garantia</t>
-  </si>
-  <si>
-    <t>Valor Cobrado</t>
-  </si>
-  <si>
-    <t>Lucro</t>
   </si>
 </sst>
 </file>
